--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matus\Desktop\vajcovnik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0646ED-0487-4563-A0C9-2171C7A90350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB56CC19-1AF2-454B-ABBC-058D72E96FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="324" windowWidth="19440" windowHeight="12120" xr2:uid="{9DC8330C-B52B-42C6-9000-3963D312AFAB}"/>
+    <workbookView xWindow="936" yWindow="2700" windowWidth="19440" windowHeight="12120" xr2:uid="{9DC8330C-B52B-42C6-9000-3963D312AFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>https://mediately.co/sk/icd/A00-B99/set/A00-A09/Crevne-infekcne-choroby</t>
   </si>
@@ -54,6 +54,822 @@
   </si>
   <si>
     <t>https://mediately.co/sk/icd/A00-B99/set/A65-A69/Ine-spirochetove-choroby</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/A70-A74/Ine-choroby-zapricinene-chlamydiami</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/A75-A79/Riketsiozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/A80-A89/Virusove-infekcie-centralnej-nervovej-sustavy-(A80-A89)</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/A90-A99/Virusova-horucka-a-virusova-hemoragicka-horucka-prenasana-clankonozcami</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B00-B09/Virusove-infekcie-charakterizovane-poskodenim-koze-a-sliznic</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B15-B19/Virusove-hepatitidy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B20-B24/Choroba-zapricinena-virusom-ludskej-imunitnej-nedostatocnosti-Choroba-HIV</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B25-B34/Ine-virusove-choroby</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B35-B49/Mykozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B50-B64/Protozoarne-choroby</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B65-B83/Helmintozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B85-B89/Zavsivenie-Pedikuloza-svrab-Akarioza-a-ine-zamorenia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B90-B94/Nasledky-infekcnych-a-parazitovych-chorob</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B95-B98/Bakterie-virusy-a-ini-infekcni-povodcovia-ako-pricina-chorob-zatriedenych-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/A00-B99/set/B99-B99/Ine-infekcne-choroby</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C00-C14/Zhubne-nadory-pery-ustnej-dutiny-a-hltana</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C15-C26/Zhubne-nadory-traviacich-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C30-C39/Zhubne-nadory-dychacich-a-vnutrohrudnikovych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C40-C41/Zhubne-nadory-kosti-a-kbovej-chrupky</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C43-C44/Melanom-a-ine-zhubne-nadory-koze</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C45-C49/Zhubne-nadory-mezotelu-a-makkeho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C50-C50/Zhubne-nadory-prsnika</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C51-C58/Zhubne-nadory-zenskych-pohlavnych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C60-C63/Zhubne-nadory-muzskych-pohlavnych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C64-C68/Zhubne-nadory-mocovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C69-C72/Zhubne-nadory-oka-mozgu-a-inych-casti-centralnej-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C73-C75/Zhubne-nadory-stitnej-zlazy-a-inych-zliaz-s-vnutornym-vylucovanim</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C76-C80/Zhubne-nadory-na-nepresne-urcenych-sekundarnych-a-blizsie-neurcenych-miestach</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C81-C96/Zhubne-nadory-s-povodom-alebo-s-predpokladanym-povodom-z-lymfatickeho-hemopoetickeho-a-pribuzneho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/C97-C97/Zhubne-nadory-mnohopocetne-na-viacerych-nezavislych-primarnych-miestach</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/D00-D09/Karcinomy-in-situ-Carcinoma-in-situ-CIS</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/D10-D36/Nezhubne-nadory</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/C00-D48/set/D37-D48/Nadory-s-neurcitym-alebo-neznamym-spravanim</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/D50-D90/set/D50-D53/Nutricne-anemie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/D50-D90/set/D55-D59/Hemolyticke-anemie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/D50-D90/set/D60-D64/Aplasticke-a-ine-anemie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/D50-D90/set/D65-D69/Poruchy-koagulacie-purpura-a-ine-stavy-krvacavosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/D50-D90/set/D70-D77/Ine-choroby-krvi-a-krvotvornych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/D50-D90/set/D80-D90/Urcite-poruchy-s-ucastou-imunitnych-mechanizmov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E00-E07/Choroby-stitnej-zlazy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E10-E14/Diabetes-mellitus</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E15-E16/Ine-poruchy-regulacie-glukozy-v-krvi-a-vnutorneho-vylucovania-podzaludkovej-zlazy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E20-E35/Choroby-ostatnych-zliaz-s-vnutornym-vylucovanim</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E40-E46/Choroby-z-podvyzivy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E50-E64/Ine-nedostatky-vo-vyzive</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E65-E68/Obezita-a-ina-nadmerna-vyziva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/E00-E90/set/E70-E90/Metabolicke-poruchy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F00-F09/Organicke-dusevne-poruchy-vratane-symptomatickych</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F10-F19/Poruchy-psychiky-a-spravania-zapricinene-uzivanim-psychoaktivnych-latok</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F20-F29/Schizofrenia-schizotypove-poruchy-a-poruchy-s-bludmi</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F30-F39/Afektivne-poruchy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F40-F48/Neuroticke-poruchy-poruchy-podmienene-stresom-a-somatoformne-poruchy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F50-F59/Poruchy-spravania-spojene-s-poruchami-fyziologickych-funkcii-a-somatickych-faktorov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F60-F69/Poruchy-osobnosti-a-spravania-dospelych</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F70-F79/Dusevna-zaostalost-Mentalna-retardacia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F80-F89/Poruchy-psychickeho-vyvinu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F90-F98/Poruchy-spravania-a-emotivity-so-zvycajnym-zaciatkom-v-detstve-a-pocas-dospievania</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/F00-F99/set/F99-F99/Dusevne-poruchy-blizsie-neurcene</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G00-G09/Zapalove-choroby-centralnej-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G10-G14/Systemove-atrofie-prvotne-postihujuce-centralnu-nervovu-sustavu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G20-G26/Extrapyramidove-poruchy-a-poruchy-hybnosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G30-G32/Ine-degenerativne-choroby-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G35-G37/Demyelinizacne-choroby-centralnej-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G40-G47/Epizodicke-a-zachvatove-poruchy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G50-G59/Poruchy-nervov-nervovych-korenov-a-nervovych-spleti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G60-G64/Polyneuropatie-a-ine-poruchy-perifernej-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G70-G73/Choroby-nervovosvalovej-platnicky-a-svalov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G80-G83/Detska-mozgova-obrna-a-ine-paralyticke-syndromy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/G00-G99/set/G90-G99/Ine-choroby-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H00-H06/Choroby-mihalnic-slznych-organov-a-ocnice</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H10-H13/Choroby-spojovky</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H15-H22/Choroby-ocneho-bielka-rohovky-duhovky-a-vraskovca-(corpus-ciliare)</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H25-H28/Choroby-sosoviek</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H30-H36/Choroby-cievovky-a-sietnice</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H40-H42/Glaukom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H43-H45/Choroby-sklovca-a-ocnej-gule</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H46-H48/Choroby-zrakoveho-nervu-a-zrakovych-drah</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H49-H52/Poruchy-ocnych-svalov-binokularnych-pohybov-akomodacie-a-refrakcie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H53-H54/Porucha-videnia-a-slepota</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H00-H59/set/H55-H59/Ine-choroby-oka-a-ocnych-adnexov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H60-H95/set/H60-H62/Choroby-vonkajsieho-ucha</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H60-H95/set/H65-H75/Choroby-stredneho-ucha-a-hlavkoveho-vybezku</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H60-H95/set/H80-H83/Choroby-vnutorneho-ucha</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/H60-H95/set/H90-H95/Ine-choroby-ucha</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I00-I02/Akutna-reumaticka-horucka</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I05-I09/Chronicke-reumaticke-choroby-srdca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I10-I15/Arteriova-hypertenzia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I20-I25/Ischemicka-choroba-srdca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I26-I28/Srdcovoplucne-choroby-a-choroby-plucneho-obehu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I30-I52/Ine-choroby-srdca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I60-I69/Cievne-choroby-mozgu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I70-I79/Choroby-tepien-tepniciek-a-vlasocnic</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I80-I89/Choroby-zil-lymfatickych-ciev-a-lymfatickych-uzlin-nezatriedene-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/I00-I99/set/I95-I99/Ine-a-blizsie-neurcene-choroby-obehovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J00-J06/Akutne-infekcie-hornych-dychacich-ciest</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J09-J18/Chripka-influenza-a-zapal-pluc-pneumonia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J20-J22/Ine-akutne-infekcie-dolnych-dychacich-ciest</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J30-J39/Ine-choroby-hornych-dychacich-ciest</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J40-J47/Chronicke-choroby-dolnych-dychacich-ciest</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J60-J70/Choroby-pluc-zapricinene-vonkajsimi-faktormi</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J80-J84/Ine-choroby-dychacich-organov-postihujuce-najma-intersticium</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J85-J86/Hnisove-a-nekroticke-choroby-dolnych-dychacich-ciest</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J90-J94/Ine-choroby-pohrudnice</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/J00-J99/set/J95-J99/Ine-choroby-dychacej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K00-K14/Choroby-ustnej-dutiny-slinnych-zliaz-a-celusti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K20-K31/Choroby-pazeraka-zaludka-a-dvanastnika</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K35-K38/Choroby-cervoviteho-privesku</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K40-K46/Prietrze-hernie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K50-K52/Neinfekcne-zapaly-tenkeho-a-hrubeho-creva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K55-K64/Ine-choroby-criev</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K65-K67/Choroby-pobrusnice</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K70-K77/Choroby-pecene</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K80-K87/Choroby-zlcnika-zlcovych-ciest-a-podzaludkovej-zlazy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/K00-K93/set/K90-K93/Ine-choroby-traviacej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L00-L08/Infekcie-koze-a-podkozneho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L10-L14/Pluzgierove-(bulozne)-dermatozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L20-L30/Dermatitidy-a-ekzemy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L40-L45/Papuloskvamozne-choroby-koze</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L50-L54/Zihlavka-urticaria-a-erytemy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L55-L59/Radiacne-poskodenie-koze-a-podkozneho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L60-L75/Choroby-koznych-adnexov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/L00-L99/set/L80-L99/Ine-choroby-koze-a-podkozneho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M00-M03/Infekcne-artropatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M05-M14/Zapalove-polyartropatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M15-M19/Artroza</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M20-M25/Ine-choroby-kbov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M30-M36/Systemove-choroby-spojiva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M40-M43/Deformujuce-dorzopatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M45-M49/Spondylopatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M50-M54/Ine-dorzopatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M60-M63/(M60-M63)-Choroby-svalov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M65-M68/Choroby-synovialnej-blany-a-slachy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M70-M79/Ine-choroby-makkeho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M80-M85/Poruchy-hustoty-a-struktury-kosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M86-M90/Ine-osteopatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M91-M94/Chondropatie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/M00-M99/set/M95-M99/Ine-choroby-svalovej-a-kostrovej-sustavy-a-spojivoveho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N00-N08/Choroby-glomerulov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N10-N16/Tubulointersticialne-choroby-obliciek</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N17-N19/Zlyhanie-obliciek</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N20-N23/Urolitiaza</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N25-N29/Ine-choroby-obliciek-a-mocovodov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N30-N39/Ine-choroby-mocovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N40-N51/Choroby-muzskych-pohlavnych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N60-N64/Choroby-prsnika</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N70-N77/Zapalove-choroby-zenskych-panvovych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N80-N98/Nezapalove-choroby-zenskych-pohlavnych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/N00-N99/set/N99-N99/Ine-choroby-mocovopohlavnej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O00-O08/Gravidita-konciaca-potratom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O09-O09/Trvanie-gravidity</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O10-O16/Edemy-proteinuria-a-arteriova-hypertenzia-v-gravidite-pri-porode-a-v-sestonedeli</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O20-O29/Ine-choroby-matky-suvisiace-najma-s-graviditou</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O30-O48/Starostlivost-o-matku-so-zameranim-na-plod-amniovu-dutinu-a-na-mozne-komplikacie-pri-porode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O60-O75/Komplikacie-porodnej-cinnosti-a-porodu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O80-O84/Porod</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O85-O92/Komplikacie-vyskytujuce-sa-najma-v-sestonedeli</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/set/O94-O99/Ine-chorobne-stavy-v-gravidite-porode-a-sestonedeli-nezatriedene-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/O00-O99/Gravidita-porod-a-sestonedelie?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P00-P04/Poskodenie-plodu-a-novorodenca-chorobami-matky-a-komplikaciami-gravidity-porodnej-cinnosti-a-porodu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P05-P08/Poruchy-suvisiace-s-dzkou-gravidity-a-s-vyvinom-plodu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P10-P15/Poranenia-pri-porode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P20-P29/Choroby-specificke-pre-perinatalne-obdobie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P35-P39/Infekcie-specificke-pre-perinatalne-obdobie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P50-P61/Hemoragicke-a-krvne-choroby-plodu-a-novorodenca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P70-P74/Prechodne-endokrinne-a-metabolicke-poruchy-specificke-pre-plod-a-novorodenca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P75-P78/Choroby-traviacej-sustavy-plodu-a-novorodenca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P80-P83/Choroby-postihujuce-kozu-a-regulaciu-telesnej-teploty-plodu-a-novorodenca</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/set/P90-P96/Ine-poruchy-so-vznikom-v-perinatalnom-obdobi</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/P00-P96/Urcite-choroby-vzniknute-v-perinatalnom-obdobi?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q00-Q07/Vrodena-chyba-nervovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q10-Q18/Vrodene-chyby-oka-ucha-tvare-a-krku</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q20-Q28/Vrodena-chyba-obehovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q30-Q34/Vrodene-chyby-dychacich-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q35-Q37/Razstep-pery-a-razstep-podnebia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q38-Q45/Ine-vrodene-chyby-traviacej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q50-Q56/Vrodena-chyba-pohlavnych-organov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q60-Q64/Vrodene-chyby-mocovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q65-Q79/Vrodene-chyby-a-deformity-svalov-a-kosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q80-Q89/Ina-vrodena-chyba</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/set/Q90-Q99/Chromozomove-abnormality-nezatriedene-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Q00-Q99/Vrodene-chyby-deformity-a-chromozomove-anomalie?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R00-R09/Subjektivne-a-objektivne-priznaky-postihnutia-obehovej-a-dychacej-sustavy-blizsie-urcene</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R10-R19/Subjektivne-a-objektivne-priznaky-postihnutia-traviacej-sustavy-a-brucha</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R20-R23/Subjektivne-a-objektivne-priznaky-postihnutia-koze-a-podkozneho-tkaniva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R25-R29/Subjektivne-a-objektivne-priznaky-postihnutia-nervovej-svalovej-a-kostrovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R30-R39/Subjektivne-a-objektivne-priznaky-poruch-mocovej-sustavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R40-R46/Subjektivne-a-objektivne-priznaky-poruch-poznavania-vnimania-emocneho-stavu-a-spravania</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R47-R49/Subjektivne-a-objektivne-priznaky-poruch-reci-a-hlasu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R50-R69/Celkove-subjektivne-a-objektivne-priznaky</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R70-R79/Abnormalne-nalezy-pri-vysetreni-krvi-bez-urcenej-diagnozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R80-R82/Abnormalne-nalezy-pri-vysetreni-mocu-bez-diagnozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R83-R89/Abnormalne-nalezy-pri-vysetrovani-inych-telovych-tekutin-latok-a-tkaniv-bez-diagnozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R90-R94/Abnormalne-nalezy-pri-diagnostickom-zobrazovani-a-funkcnych-vysetreniach-bez-diagnozy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/set/R95-R99/Nepresne-urcene-a-nezname-priciny-smrti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/R00-R99/Subjektivne-a-objektivne-priznaky-abnormalne-klinicke-a-laboratorne-nalezy-nezatriedene-inde?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S00-S09/Poranenia-hlavy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S10-S19/Poranenia-krku</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S20-S29/Poranenia-hrudnika</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S30-S39/Poranenia-brucha-drieku-driekovej-chrbtice-a-panvy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S40-S49/Poranenia-pleca-a-ramena</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S50-S59/Poranenia-lakta-a-predlaktia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S60-S69/Poranenia-zapastia-a-ruky</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S70-S79/Poranenia-bedra-a-stehna</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S80-S89/Poranenia-kolena-a-predkolenia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/S90-S99/Poranenia-clenka-a-nohy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T00-T07/Poranenia-postihujuce-viacere-oblasti-tela</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T08-T14/Poranenia-blizsie-neurcenej-casti-trupu-koncatin-alebo-inej-oblasti-tela</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T15-T19/Ucinky-cudzieho-telesa-ktore-vniklo-prirodzenym-telesnym-otvorom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T20-T25/Popaleniny-a-poleptania-povrchu-tela-s-urcenim-miesta-postihnutia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T26-T28/Popaleniny-a-poleptania-obmedzene-na-oko-a-vnutorne-organy</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T29-T32/Popaleniny-a-poleptania-viacerych-a-blizsie-neurcenych-casti-tela</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T33-T35/Omrzliny</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T36-T50/Otravy-liekmi-liecivami-a-biologickymi-latkami</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T51-T65/Toxicke-ucinky-latok-pouzivane-prevazne-mimo-lekarstva</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T66-T78/Ine-a-blizsie-neurcene-ucinky-vonkajsich-pricin</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T79-T79/Urcite-vcasne-komplikacie-urazov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T80-T88/Komplikacie-zdravotnej-starostlivosti-nezatriedene-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T89-T89/Ina-komplikacia-urazu-nezatriedena-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/set/T90-T98/Neskore-nasledky-poraneni-otrav-a-ine-dosledky-vonkajsich-pricin</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/S00-T98/Poranenia-otravy-a-niektore-ine-nasledky-vonkajsich-pricin?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U00-U49/Prechodne-zaradenie-novej-choroby-nejasneho-povodu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U50-U52/Funkcne-obmedzenie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U55-U55/Vykonany-zapis-do-transplantacneho-registra</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U60-U61/Rozdelenie-stadii-infekcie-HIV</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U69-U69/Ostatne-sekundarne-kody-na-osobitne-ucely</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U80-U85/Povodcovia-rezistentni-na-antibiotika-a-chemoterapeutika</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/set/U99-U99/Nepokryte-kody-pre-osobitne-ucely-U99</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/U00-U99/Kody-na-osobitne-ucely?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V01-V09/Poranenie-chodca-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V10-V19/Poranenie-bicyklistu-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V20-V29/Poranenie-jazdca-na-motocykli-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V30-V39/Poranenie-clena-posadky-trojkolesoveho-motoroveho-vozidla-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V40-V49/Poranenia-clena-posadky-osobneho-auta-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V50-V59/Poranenia-clena-posadky-nakladneho-alebo-dodavkoveho-auta-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V60-V69/Poranenie-cestujuceho-v-kamione-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V70-V79/Poranenia-clena-posadky-autobusu-pri-dopravnej-nehode</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V80-V89/Dopravne-nehody-pri-pouziti-inych-suchozemskych-dopravnych-prostriedkov</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V90-V94/Dopravne-nehody-pri-vodnej-doprave</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V95-V97/Nehody-pri-preprave-vzduchom-a-vesmirnym-priestorom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/V98-V99/Ine-a-blizsie-neurcene-dopravne-nehody</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/W00-W19/Pady</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/W20-W49/Vystavenie-ucinkom-nezivych-mechanickych-sil</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/W50-W64/Vystavenie-ucinkom-zivych-mechanickych-sil</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/W65-W74/Nahodne-utopenie-a-topenie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/W75-W84/Ine-nahodne-udusenia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/W85-W99/Vystavenie-elektrickemu-prudu-ziareniu-extremnej-teplote-a-tlaku-okoliteho-vzduchu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X00-X09/Vystavenie-dymu-ohnu-a-plamenom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X10-X19/Kontakt-s-horucavou-a-horucimi-latkami</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X20-X29/Kontakt-s-jedovatymi-zivocichmi-a-rastlinami-ako-pricina-otravy-alebo-toxickej-reakcie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X30-X39/Vystavenie-ucinkom-prirodnych-sil</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X40-X49/Nahodne-otravy-a-priotravenia-skodlivymi-latkami</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X50-X57/Pretazenie-cestovanie-a-nedostatok-zakladnych-potrieb</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X58-X59/Nahodne-vystavenie-inym-a-blizsie-neurcenym-vplyvom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X60-X84/Umyselne-samoposkodenia</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/X85-Y09/Napadnutia-(utoky)</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y10-Y34/Udalosti-s-neurcenym-umyslom</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y35-Y36/Zakonne-vykony-a-vojnove-operacie</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y40-Y59/Neziaduce-vedlajsie-ucinky-pri-liecebnom-pouziti-liekov-lieciv-a-biologicky-aktivnych-latok</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y60-Y69/Poskodenia-pacientov-pocas-chirurgickej-a-lekarskej-starostlivosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y70-Y82/Nepriaznive-prihody-suvisiace-s-pouzitim-lekarskych-technickych-pristrojov-pri-diagnostickych-a-liecebnych-vykonoch</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y83-Y84/Chirurgicke-a-ine-lekarske-vykony-ako-priciny-abnormalnej-reakcie-pacienta-alebo-neskorsej-komplikacie-bez-nehody-v-case-vykonu</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y85-Y89/Neskore-nasledky-vonkajsich-pricin-chorobnosti-a-umrtnosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/set/Y90-Y98/Pridruzene-faktory-suvisiace-s-pricinami-chorobnosti-a-umrtnosti-zatriedenymi-inde</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/V01-Y98/Vonkajsie-priciny-chorobnosti-a-umrtnosti?q=ZAP</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z00-Z13/Osoby-ktore-vyhladali-zdravotnicke-sluzby-kvoli-vysetreniu-a-prehliadke</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z20-Z29/Osoby-s-potencialnym-ohrozenim-zdravia-vo-vztahu-k-prenosnym-chorobam</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z30-Z39/Osoby-vyuzivajuce-zdravotnicke-sluzby-pre-problemy-suvisiace-s-reprodukciou</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z40-Z54/Osoby-ktore-sa-stretavaju-so-zdravotnickymi-sluzbami-za-ucelom-specifickych-vykonov-a-zdravotnej-starostlivosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z55-Z65/Osoby-s-potencialnym-ohrozenim-zdravia-v-suvislosti-so-socialno-ekonomickymi-a-psychosocialnymi-okolnostami</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z70-Z76/Osoby-ktore-vyhladali-zdravotnicke-sluzby-za-inych-okolnosti</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/set/Z80-Z99/Osoby-s-potencialnym-ohrozenim-zdravia-v-suvislosti-s-rodinnou-a-osobnou-anamnezou-a-s-urcitymi-okolnostami-ovplyvnujucimi-zdravotny-stav</t>
+  </si>
+  <si>
+    <t>https://mediately.co/sk/icd/Z00-Z99/Faktory-ovplyvnujuce-zdravotny-stav-a-styk-so-zdravotnickymi-sluzbami?q=ZAP</t>
   </si>
 </sst>
 </file>
@@ -70,15 +886,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +908,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,42 +1241,1510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C379223-07DC-4DBE-9789-7C2F840F386D}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
